--- a/Template_Planilla_Costos.xlsx
+++ b/Template_Planilla_Costos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AC3ECodes\19II017-Contract-Plataforma_Interactiva\sw-backend-module-prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo-RH\Documents\sw-backend-module-prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3487C-942E-42D4-B2FC-02712BE05E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DDA4C3-6896-45A0-BCC7-D4A7F7F6167A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="5040" windowWidth="13500" windowHeight="8505" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
   </bookViews>
   <sheets>
     <sheet name="CHILE" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CHILE!$A$1:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CHILE!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>MODULO</t>
   </si>
@@ -103,13 +103,58 @@
   </si>
   <si>
     <t>WYS_PRIVADO_1PERSONA</t>
+  </si>
+  <si>
+    <t>TRAMITACIÓN MUNICIPAL</t>
+  </si>
+  <si>
+    <t>PROYECTOS DE ESPECIALIDADES</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE OBRA</t>
+  </si>
+  <si>
+    <t>PROJECT MANAGER</t>
+  </si>
+  <si>
+    <t>INSPECCIÓN TÉCNICA DE OBRA</t>
+  </si>
+  <si>
+    <t>SEGURIDAD E HIGIENE</t>
+  </si>
+  <si>
+    <t>MUDANZA Y GERENCIAMIENTO</t>
+  </si>
+  <si>
+    <t>3,75</t>
+  </si>
+  <si>
+    <t>DEMOLICION</t>
+  </si>
+  <si>
+    <t>BAÑOS NUEVOS</t>
+  </si>
+  <si>
+    <t>BASE CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>por m2</t>
+  </si>
+  <si>
+    <t>por (m2*pisos)</t>
+  </si>
+  <si>
+    <t>por Semana</t>
+  </si>
+  <si>
+    <t>por cada 6,4 m2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +168,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6600"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +200,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -170,6 +233,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -484,23 +553,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C03B4E-5520-41AD-9D0A-6CB3CE544FFF}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D29"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -520,233 +590,268 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <f>950*2.5</f>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
         <v>395.4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E11" s="2">
         <v>395.4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F11" s="2">
         <v>395.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H11" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1160.3576470588237</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1571.7576470588233</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1940.5229411764708</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1031.9811764705883</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1624.5524705882353</v>
-      </c>
-      <c r="F4" s="3">
-        <v>6680.162823529412</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>284.84823529411761</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3366.3882352941177</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>533.70173935294122</v>
-      </c>
-      <c r="E6" s="3">
-        <v>533.70173935294122</v>
-      </c>
-      <c r="F6" s="3">
-        <v>665.02238647058834</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>145.64582352941176</v>
-      </c>
-      <c r="E7" s="3">
-        <v>145.64582352941176</v>
-      </c>
-      <c r="F7" s="3">
-        <v>206.20664705882356</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>23.941176470588236</v>
-      </c>
-      <c r="E8" s="3">
-        <v>23.941176470588236</v>
-      </c>
-      <c r="F8" s="3">
-        <v>253.38305882352941</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>205.46189529411765</v>
-      </c>
-      <c r="E9" s="3">
-        <v>205.46189529411765</v>
-      </c>
-      <c r="F9" s="3">
-        <v>287.08170441176475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>79.583058823529413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
         <v>57.647058823529413</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>74.117647058823536</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>117.64705882352941</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1878.1788235294121</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2149.9694117647059</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3133.6994117647059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -754,19 +859,19 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>1976.675411764706</v>
+        <v>1878.1788235294121</v>
       </c>
       <c r="E13" s="3">
-        <v>2912.383294117647</v>
+        <v>2149.9694117647059</v>
       </c>
       <c r="F13" s="3">
-        <v>11868.016470588236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3133.6994117647059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -774,19 +879,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1976.675411764706</v>
       </c>
       <c r="E14" s="3">
-        <v>694.82470588235287</v>
+        <v>2912.383294117647</v>
       </c>
       <c r="F14" s="3">
-        <v>8211.5647058823542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11868.016470588236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -794,19 +899,19 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>1093.5910758235295</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>1093.5910758235295</v>
+        <v>694.82470588235287</v>
       </c>
       <c r="F15" s="3">
-        <v>1413.9189511764707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8211.5647058823542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -814,16 +919,16 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
-        <v>248.8724117647059</v>
+        <v>1093.5910758235295</v>
       </c>
       <c r="E16" s="3">
-        <v>248.8724117647059</v>
+        <v>1093.5910758235295</v>
       </c>
       <c r="F16" s="3">
-        <v>348.63205882352941</v>
+        <v>1413.9189511764707</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -834,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>23.941176470588236</v>
+        <v>248.8724117647059</v>
       </c>
       <c r="E17" s="3">
-        <v>23.941176470588236</v>
+        <v>248.8724117647059</v>
       </c>
       <c r="F17" s="3">
-        <v>253.38305882352941</v>
+        <v>348.63205882352941</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,16 +959,16 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>501.179165882353</v>
+        <v>23.941176470588236</v>
       </c>
       <c r="E18" s="3">
-        <v>501.179165882353</v>
+        <v>23.941176470588236</v>
       </c>
       <c r="F18" s="3">
-        <v>700.27276323529418</v>
+        <v>253.38305882352941</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,16 +979,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>501.179165882353</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>501.179165882353</v>
       </c>
       <c r="F19" s="3">
-        <v>79.583058823529413</v>
+        <v>700.27276323529418</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -894,36 +999,36 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>79.583058823529413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
         <v>93.529411764705884</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>118.82352941176471</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>195.88235294117646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2631.5105882352937</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3543.7988235294106</v>
-      </c>
-      <c r="F21" s="5">
-        <v>3092.4429411764704</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,16 +1039,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5">
-        <v>1224.3957647058824</v>
+        <v>2631.5105882352937</v>
       </c>
       <c r="E22" s="5">
-        <v>1858.9831764705882</v>
+        <v>3543.7988235294106</v>
       </c>
       <c r="F22" s="5">
-        <v>7403.3934117647068</v>
+        <v>3092.4429411764704</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,16 +1059,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="5">
-        <v>623.92647058823525</v>
+        <v>1224.3957647058824</v>
       </c>
       <c r="E23" s="5">
-        <v>881.53676470588232</v>
+        <v>1858.9831764705882</v>
       </c>
       <c r="F23" s="5">
-        <v>3919.8144117647057</v>
+        <v>7403.3934117647068</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,16 +1079,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="5">
-        <v>909.19387058823543</v>
+        <v>623.92647058823525</v>
       </c>
       <c r="E24" s="5">
-        <v>909.19387058823543</v>
+        <v>881.53676470588232</v>
       </c>
       <c r="F24" s="5">
-        <v>909.19387058823543</v>
+        <v>3919.8144117647057</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,16 +1099,16 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="5">
-        <v>121.42188235294118</v>
+        <v>909.19387058823543</v>
       </c>
       <c r="E25" s="5">
-        <v>121.42188235294118</v>
+        <v>909.19387058823543</v>
       </c>
       <c r="F25" s="5">
-        <v>181.02376470588237</v>
+        <v>909.19387058823543</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,16 +1119,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="5">
-        <v>23.941176470588236</v>
+        <v>121.42188235294118</v>
       </c>
       <c r="E26" s="5">
-        <v>47.882352941176471</v>
+        <v>121.42188235294118</v>
       </c>
       <c r="F26" s="5">
-        <v>961.91247058823535</v>
+        <v>181.02376470588237</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,16 +1139,16 @@
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="5">
-        <v>301.8780470588236</v>
+        <v>23.941176470588236</v>
       </c>
       <c r="E27" s="5">
-        <v>301.8780470588236</v>
+        <v>47.882352941176471</v>
       </c>
       <c r="F27" s="5">
-        <v>421.79920588235302</v>
+        <v>961.91247058823535</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,16 +1159,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="5">
-        <v>0</v>
+        <v>301.8780470588236</v>
       </c>
       <c r="E28" s="5">
-        <v>55.771294117647059</v>
+        <v>301.8780470588236</v>
       </c>
       <c r="F28" s="5">
-        <v>234.87717647058824</v>
+        <v>421.79920588235302</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,20 +1179,40 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>55.771294117647059</v>
+      </c>
+      <c r="F29" s="5">
+        <v>234.87717647058824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5">
         <v>81.17647058823529</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>121.05882352941177</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>381.41176470588238</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F20" xr:uid="{9B2DB7E7-83C7-49A2-8DA9-FB13A56FD943}"/>
+  <autoFilter ref="A1:F21" xr:uid="{9B2DB7E7-83C7-49A2-8DA9-FB13A56FD943}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Template_Planilla_Costos.xlsx
+++ b/Template_Planilla_Costos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo-RH\Documents\sw-backend-module-prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AC3ECodes\19II017-Contract-Plataforma_Interactiva\sw-backend-module-prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DDA4C3-6896-45A0-BCC7-D4A7F7F6167A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3487C-942E-42D4-B2FC-02712BE05E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
+    <workbookView xWindow="4350" yWindow="5040" windowWidth="13500" windowHeight="8505" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
   </bookViews>
   <sheets>
     <sheet name="CHILE" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CHILE!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CHILE!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>MODULO</t>
   </si>
@@ -103,58 +103,13 @@
   </si>
   <si>
     <t>WYS_PRIVADO_1PERSONA</t>
-  </si>
-  <si>
-    <t>TRAMITACIÓN MUNICIPAL</t>
-  </si>
-  <si>
-    <t>PROYECTOS DE ESPECIALIDADES</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE OBRA</t>
-  </si>
-  <si>
-    <t>PROJECT MANAGER</t>
-  </si>
-  <si>
-    <t>INSPECCIÓN TÉCNICA DE OBRA</t>
-  </si>
-  <si>
-    <t>SEGURIDAD E HIGIENE</t>
-  </si>
-  <si>
-    <t>MUDANZA Y GERENCIAMIENTO</t>
-  </si>
-  <si>
-    <t>3,75</t>
-  </si>
-  <si>
-    <t>DEMOLICION</t>
-  </si>
-  <si>
-    <t>BAÑOS NUEVOS</t>
-  </si>
-  <si>
-    <t>BASE CONSTRUCCIÓN</t>
-  </si>
-  <si>
-    <t>por m2</t>
-  </si>
-  <si>
-    <t>por (m2*pisos)</t>
-  </si>
-  <si>
-    <t>por Semana</t>
-  </si>
-  <si>
-    <t>por cada 6,4 m2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +123,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF6600"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,18 +149,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -233,12 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,24 +484,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C03B4E-5520-41AD-9D0A-6CB3CE544FFF}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -590,268 +520,233 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>395.4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>395.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>395.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1160.3576470588237</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1571.7576470588233</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1940.5229411764708</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1031.9811764705883</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1624.5524705882353</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6680.162823529412</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>284.84823529411761</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3366.3882352941177</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>533.70173935294122</v>
+      </c>
+      <c r="E6" s="3">
+        <v>533.70173935294122</v>
+      </c>
+      <c r="F6" s="3">
+        <v>665.02238647058834</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>145.64582352941176</v>
+      </c>
+      <c r="E7" s="3">
+        <v>145.64582352941176</v>
+      </c>
+      <c r="F7" s="3">
+        <v>206.20664705882356</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23.941176470588236</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23.941176470588236</v>
+      </c>
+      <c r="F8" s="3">
+        <v>253.38305882352941</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>205.46189529411765</v>
+      </c>
+      <c r="E9" s="3">
+        <v>205.46189529411765</v>
+      </c>
+      <c r="F9" s="3">
+        <v>287.08170441176475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>79.583058823529413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5">
-        <f>950*2.5</f>
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7">
-        <v>10</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>395.4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>395.4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>395.4</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>57.647058823529413</v>
+      </c>
+      <c r="E11" s="3">
+        <v>74.117647058823536</v>
+      </c>
+      <c r="F11" s="3">
+        <v>117.64705882352941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>57.647058823529413</v>
+        <v>1878.1788235294121</v>
       </c>
       <c r="E12" s="3">
-        <v>74.117647058823536</v>
+        <v>2149.9694117647059</v>
       </c>
       <c r="F12" s="3">
-        <v>117.64705882352941</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3133.6994117647059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -859,19 +754,19 @@
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>1878.1788235294121</v>
+        <v>1976.675411764706</v>
       </c>
       <c r="E13" s="3">
-        <v>2149.9694117647059</v>
+        <v>2912.383294117647</v>
       </c>
       <c r="F13" s="3">
-        <v>3133.6994117647059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11868.016470588236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -879,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
-        <v>1976.675411764706</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2912.383294117647</v>
+        <v>694.82470588235287</v>
       </c>
       <c r="F14" s="3">
-        <v>11868.016470588236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8211.5647058823542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -899,19 +794,19 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1093.5910758235295</v>
       </c>
       <c r="E15" s="3">
-        <v>694.82470588235287</v>
+        <v>1093.5910758235295</v>
       </c>
       <c r="F15" s="3">
-        <v>8211.5647058823542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1413.9189511764707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -919,16 +814,16 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>1093.5910758235295</v>
+        <v>248.8724117647059</v>
       </c>
       <c r="E16" s="3">
-        <v>1093.5910758235295</v>
+        <v>248.8724117647059</v>
       </c>
       <c r="F16" s="3">
-        <v>1413.9189511764707</v>
+        <v>348.63205882352941</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,16 +834,16 @@
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3">
-        <v>248.8724117647059</v>
+        <v>23.941176470588236</v>
       </c>
       <c r="E17" s="3">
-        <v>248.8724117647059</v>
+        <v>23.941176470588236</v>
       </c>
       <c r="F17" s="3">
-        <v>348.63205882352941</v>
+        <v>253.38305882352941</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,16 +854,16 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3">
-        <v>23.941176470588236</v>
+        <v>501.179165882353</v>
       </c>
       <c r="E18" s="3">
-        <v>23.941176470588236</v>
+        <v>501.179165882353</v>
       </c>
       <c r="F18" s="3">
-        <v>253.38305882352941</v>
+        <v>700.27276323529418</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,16 +874,16 @@
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
-        <v>501.179165882353</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>501.179165882353</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>700.27276323529418</v>
+        <v>79.583058823529413</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,36 +894,36 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>93.529411764705884</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>118.82352941176471</v>
       </c>
       <c r="F20" s="3">
-        <v>79.583058823529413</v>
+        <v>195.88235294117646</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="3">
-        <v>93.529411764705884</v>
-      </c>
-      <c r="E21" s="3">
-        <v>118.82352941176471</v>
-      </c>
-      <c r="F21" s="3">
-        <v>195.88235294117646</v>
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2631.5105882352937</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3543.7988235294106</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3092.4429411764704</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,16 +934,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5">
-        <v>2631.5105882352937</v>
+        <v>1224.3957647058824</v>
       </c>
       <c r="E22" s="5">
-        <v>3543.7988235294106</v>
+        <v>1858.9831764705882</v>
       </c>
       <c r="F22" s="5">
-        <v>3092.4429411764704</v>
+        <v>7403.3934117647068</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,16 +954,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="5">
-        <v>1224.3957647058824</v>
+        <v>623.92647058823525</v>
       </c>
       <c r="E23" s="5">
-        <v>1858.9831764705882</v>
+        <v>881.53676470588232</v>
       </c>
       <c r="F23" s="5">
-        <v>7403.3934117647068</v>
+        <v>3919.8144117647057</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,16 +974,16 @@
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="5">
-        <v>623.92647058823525</v>
+        <v>909.19387058823543</v>
       </c>
       <c r="E24" s="5">
-        <v>881.53676470588232</v>
+        <v>909.19387058823543</v>
       </c>
       <c r="F24" s="5">
-        <v>3919.8144117647057</v>
+        <v>909.19387058823543</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,16 +994,16 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="5">
-        <v>909.19387058823543</v>
+        <v>121.42188235294118</v>
       </c>
       <c r="E25" s="5">
-        <v>909.19387058823543</v>
+        <v>121.42188235294118</v>
       </c>
       <c r="F25" s="5">
-        <v>909.19387058823543</v>
+        <v>181.02376470588237</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,16 +1014,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="5">
-        <v>121.42188235294118</v>
+        <v>23.941176470588236</v>
       </c>
       <c r="E26" s="5">
-        <v>121.42188235294118</v>
+        <v>47.882352941176471</v>
       </c>
       <c r="F26" s="5">
-        <v>181.02376470588237</v>
+        <v>961.91247058823535</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,16 +1034,16 @@
         <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="5">
-        <v>23.941176470588236</v>
+        <v>301.8780470588236</v>
       </c>
       <c r="E27" s="5">
-        <v>47.882352941176471</v>
+        <v>301.8780470588236</v>
       </c>
       <c r="F27" s="5">
-        <v>961.91247058823535</v>
+        <v>421.79920588235302</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,16 +1054,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5">
-        <v>301.8780470588236</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>301.8780470588236</v>
+        <v>55.771294117647059</v>
       </c>
       <c r="F28" s="5">
-        <v>421.79920588235302</v>
+        <v>234.87717647058824</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,40 +1074,20 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="5">
-        <v>0</v>
+        <v>81.17647058823529</v>
       </c>
       <c r="E29" s="5">
-        <v>55.771294117647059</v>
+        <v>121.05882352941177</v>
       </c>
       <c r="F29" s="5">
-        <v>234.87717647058824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="5">
-        <v>81.17647058823529</v>
-      </c>
-      <c r="E30" s="5">
-        <v>121.05882352941177</v>
-      </c>
-      <c r="F30" s="5">
         <v>381.41176470588238</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F21" xr:uid="{9B2DB7E7-83C7-49A2-8DA9-FB13A56FD943}"/>
+  <autoFilter ref="A1:F20" xr:uid="{9B2DB7E7-83C7-49A2-8DA9-FB13A56FD943}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Template_Planilla_Costos.xlsx
+++ b/Template_Planilla_Costos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Sites\sw-backend-module-prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo-RH\Documents\sw-backend-module-prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACD957-A403-4AAE-8E07-6E9A7534BA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34F833-AB3E-42FA-AEE1-BCB0F7696901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
   </bookViews>
   <sheets>
     <sheet name="CHILE" sheetId="2" r:id="rId1"/>
@@ -250,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,12 +267,14 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -655,23 +657,23 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -694,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -732,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -751,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -770,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -789,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -808,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -827,7 +829,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -846,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -865,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -888,7 +890,7 @@
         <v>395.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -911,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,7 +982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1026,7 +1028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>1940.5229411764708</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -1234,7 +1236,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>6680.162823529412</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1374,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>3366.3882352941177</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>665.02238647058834</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>206.20664705882356</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>253.38305882352941</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>287.08170441176475</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>15</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>15</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>79.583058823529413</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1696,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>15</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>117.64705882352941</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>15</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>15</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>63</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>3010.8423529411766</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>63</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>13061.630352941178</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>63</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>6742.8705882352942</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>63</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>1186.9096800000002</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>412.53882352941184</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>63</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>253.38305882352941</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>63</v>
       </c>
@@ -1970,7 +1972,7 @@
         <v>575.02422352941176</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>79.583058823529413</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -2016,7 +2018,7 @@
         <v>235.29411764705881</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>63</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>63</v>
       </c>
@@ -2131,7 +2133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>63</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>63</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>63</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>63</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>63</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -2315,7 +2317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>63</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>63</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>63</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>63</v>
       </c>
@@ -2407,7 +2409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>63</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>63</v>
       </c>
@@ -2453,7 +2455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>63</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>63</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>63</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>65</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>3900.3735294117655</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>65</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>18920.379176470589</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>65</v>
       </c>
@@ -2591,7 +2593,7 @@
         <v>10119.352941176472</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>65</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>1708.7969735294121</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>65</v>
       </c>
@@ -2637,7 +2639,7 @@
         <v>618.87100000000009</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>65</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>253.38305882352941</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>65</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>862.96674264705894</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>65</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>79.583058823529413</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>65</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>352.94117647058823</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>65</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>65</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>65</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>65</v>
       </c>
@@ -2815,7 +2817,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>65</v>
       </c>
@@ -2832,7 +2834,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>65</v>
       </c>
@@ -2849,7 +2851,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>65</v>
       </c>
@@ -2866,7 +2868,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>65</v>
       </c>
@@ -2883,7 +2885,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>65</v>
       </c>
@@ -2900,7 +2902,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>65</v>
       </c>
@@ -2917,7 +2919,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>65</v>
       </c>
@@ -2934,7 +2936,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>65</v>
       </c>
@@ -2951,7 +2953,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>65</v>
       </c>
@@ -2968,7 +2970,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>65</v>
       </c>
@@ -2985,7 +2987,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>65</v>
       </c>
@@ -3002,7 +3004,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>65</v>
       </c>
@@ -3019,7 +3021,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>65</v>
       </c>
@@ -3036,7 +3038,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>65</v>
       </c>
@@ -3053,7 +3055,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>65</v>
       </c>
@@ -3070,7 +3072,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>65</v>
       </c>
@@ -3087,7 +3089,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>65</v>
       </c>
@@ -3104,7 +3106,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>65</v>
       </c>
@@ -3121,7 +3123,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>67</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>2790.3182352941185</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>67</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>6607.3247058823526</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>67</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v>7181.9647058823539</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>67</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>1254.7784311764708</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>67</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>335.82805882352943</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>67</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>253.38305882352941</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>67</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>612.46966323529421</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>67</v>
       </c>
@@ -3305,7 +3307,7 @@
         <v>79.583058823529413</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>67</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>195.29411764705881</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>67</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>67</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>67</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>67</v>
       </c>
@@ -3414,7 +3416,7 @@
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>67</v>
       </c>
@@ -3431,7 +3433,7 @@
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>67</v>
       </c>
@@ -3448,7 +3450,7 @@
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>67</v>
       </c>
@@ -3465,7 +3467,7 @@
       <c r="F129" s="14"/>
       <c r="G129" s="14"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>67</v>
       </c>
@@ -3482,7 +3484,7 @@
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>67</v>
       </c>
@@ -3499,7 +3501,7 @@
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>67</v>
       </c>
@@ -3516,7 +3518,7 @@
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>67</v>
       </c>
@@ -3533,7 +3535,7 @@
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>67</v>
       </c>
@@ -3550,7 +3552,7 @@
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>67</v>
       </c>
@@ -3567,7 +3569,7 @@
       <c r="F135" s="14"/>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>67</v>
       </c>
@@ -3584,7 +3586,7 @@
       <c r="F136" s="14"/>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>67</v>
       </c>
@@ -3601,7 +3603,7 @@
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>67</v>
       </c>
@@ -3618,7 +3620,7 @@
       <c r="F138" s="14"/>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>67</v>
       </c>
@@ -3635,7 +3637,7 @@
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>67</v>
       </c>
@@ -3652,7 +3654,7 @@
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>67</v>
       </c>
@@ -3669,7 +3671,7 @@
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>67</v>
       </c>
@@ -3686,7 +3688,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>67</v>
       </c>
@@ -3703,7 +3705,7 @@
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>67</v>
       </c>

--- a/Template_Planilla_Costos.xlsx
+++ b/Template_Planilla_Costos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo-RH\Documents\sw-backend-module-prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34F833-AB3E-42FA-AEE1-BCB0F7696901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D59F7-2CAA-4AF1-A89E-F0F79309A0A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CHILE" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CHILE!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CHILE!$A$1:$F$144</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C03B4E-5520-41AD-9D0A-6CB3CE544FFF}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +709,12 @@
         <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <f>E2+1.5*E2</f>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
-        <v>10</v>
+        <f>F2*2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,10 +730,12 @@
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <f t="shared" ref="F3:F20" si="0">E3+1.5*E3</f>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
-        <v>10</v>
+        <f t="shared" ref="G3:G20" si="1">F3*2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,10 +751,12 @@
         <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,10 +772,12 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,10 +793,12 @@
         <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,10 +814,12 @@
         <v>10</v>
       </c>
       <c r="F7" s="2">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,11 +834,13 @@
       <c r="E8" s="4">
         <v>3.75</v>
       </c>
-      <c r="F8" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3.75</v>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -842,10 +856,12 @@
         <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="G9" s="2">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,10 +877,12 @@
         <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,11 +901,13 @@
       <c r="E11" s="1">
         <v>395.4</v>
       </c>
-      <c r="F11" s="1">
-        <v>395.4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>395.4</v>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>988.49999999999989</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>1976.9999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,11 +926,13 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,11 +951,13 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10</v>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,11 +976,13 @@
       <c r="E14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,11 +1001,13 @@
       <c r="E15" s="1">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10</v>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,11 +1026,13 @@
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10</v>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1021,11 +1051,13 @@
       <c r="E17" s="1">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1044,11 +1076,13 @@
       <c r="E18" s="1">
         <v>10</v>
       </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10</v>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,11 +1101,13 @@
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10</v>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,11 +1126,13 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>10</v>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3723,7 +3761,7 @@
       <c r="G144" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F32" xr:uid="{9B2DB7E7-83C7-49A2-8DA9-FB13A56FD943}"/>
+  <autoFilter ref="A1:F144" xr:uid="{9B2DB7E7-83C7-49A2-8DA9-FB13A56FD943}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Template_Planilla_Costos.xlsx
+++ b/Template_Planilla_Costos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desarrollo-RH\Documents\sw-backend-module-prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D59F7-2CAA-4AF1-A89E-F0F79309A0A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F32A5-29B8-4A84-9DE5-2ED464A84C95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D0EBCE3-B316-476A-AEA7-C8D8F70D0252}"/>
   </bookViews>
   <sheets>
     <sheet name="CHILE" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="70">
   <si>
     <t>MODULO</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>WYS_PUESTOTRABAJO_ESTRELLA3PERSONAS</t>
+  </si>
+  <si>
+    <t>CALIDAD_TERMINACIONES</t>
   </si>
 </sst>
 </file>
@@ -656,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C03B4E-5520-41AD-9D0A-6CB3CE544FFF}">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>42</v>
